--- a/awards/awards.xlsx
+++ b/awards/awards.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="333">
   <si>
     <t>Author Name</t>
   </si>
@@ -978,9 +978,6 @@
   </si>
   <si>
     <t>Where Do I Start?, And the Next Thing You Know…</t>
-  </si>
-  <si>
-    <t>Echoes of Blood, Just Visiting</t>
   </si>
   <si>
     <t>The Joy of I.T.: Infinite Transcendence</t>
@@ -1023,6 +1020,21 @@
   </si>
   <si>
     <t>Proxima g: A Sci-Fi Short Story</t>
+  </si>
+  <si>
+    <t>Echoes of Blood, Just Visiting, December Roses</t>
+  </si>
+  <si>
+    <t>Rory Michaelson</t>
+  </si>
+  <si>
+    <t>Lesser Known Monsters</t>
+  </si>
+  <si>
+    <t>JUDD/The Fragmented Chronicles</t>
+  </si>
+  <si>
+    <t>J. D. Toombs</t>
   </si>
 </sst>
 </file>
@@ -1359,9 +1371,9 @@
   </sheetPr>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1984,7 +1996,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -2655,7 +2667,7 @@
         <v>262</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>301</v>
@@ -2820,7 +2832,7 @@
         <v>263</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>65</v>
@@ -2836,7 +2848,7 @@
       </c>
       <c r="P54" t="str">
         <f t="shared" si="0"/>
-        <v>Fiona Glass, author of ECHOES OF BLOOD, JUST VISITING</v>
+        <v>Fiona Glass, author of ECHOES OF BLOOD, JUST VISITING, DECEMBER ROSES</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2880,7 +2892,7 @@
         <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
         <v>64</v>
@@ -3165,7 +3177,7 @@
         <v>262</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>146</v>
@@ -3760,7 +3772,7 @@
         <v>34</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>184</v>
@@ -4295,7 +4307,7 @@
         <v>215</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>66</v>
@@ -4387,7 +4399,7 @@
         <v>125</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>69</v>
@@ -4886,7 +4898,7 @@
         <v>262</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>196</v>
@@ -5006,7 +5018,7 @@
         <v>112</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D127" t="s">
         <v>64</v>
@@ -5159,7 +5171,7 @@
       <c r="N131" s="12"/>
       <c r="O131" s="12"/>
       <c r="P131" t="str">
-        <f t="shared" ref="P131:P149" si="2">TRIM(B131)&amp;", author of "&amp;TRIM(UPPER(C131))</f>
+        <f t="shared" ref="P131:P151" si="2">TRIM(B131)&amp;", author of "&amp;TRIM(UPPER(C131))</f>
         <v>Taylor Ramage, author of FORGIVE US OUR TRESPASSES; LEST I KNOW YOUR WEAKNESS</v>
       </c>
     </row>
@@ -5493,7 +5505,7 @@
         <v>38</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D143" t="s">
         <v>64</v>
@@ -5671,9 +5683,57 @@
         <v>Zoe Burgess, author of SONG OF THE NIGHT</v>
       </c>
     </row>
+    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="2"/>
+        <v>Rory Michaelson, author of LESSER KNOWN MONSTERS</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" si="2"/>
+        <v>J. D. Toombs, author of JUDD/THE FRAGMENTED CHRONICLES</v>
+      </c>
+    </row>
     <row r="153" spans="1:16" ht="121" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G153" s="16"/>
       <c r="H153" s="16"/>

--- a/awards/awards.xlsx
+++ b/awards/awards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="460" windowWidth="16580" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -1371,9 +1371,9 @@
   </sheetPr>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3147,224 +3147,224 @@
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="0"/>
+        <v>J. D. Toombs, author of JUDD/THE FRAGMENTED CHRONICLES</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P65" t="str">
+      <c r="E66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P66" t="str">
         <f t="shared" si="0"/>
         <v>J.C. Paulson, author of ADAM’S WITNESS/ADAM AND GRACE SERIES</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" t="str">
-        <f t="shared" si="0"/>
-        <v>J.E. Carlson &amp; Jannie Coats, author of THE SWITCH</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
-      <c r="L67" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" t="str">
         <f t="shared" ref="P67:P130" si="1">TRIM(B67)&amp;", author of "&amp;TRIM(UPPER(C67))</f>
-        <v>J.G. MacLeod, author of THE FUTURE BRIDE, ABALONE, THE ADVENTURES OF LADY ELLEN MONTAGU</v>
+        <v>J.E. Carlson &amp; Jannie Coats, author of THE SWITCH</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="B68" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
       <c r="P68" t="str">
         <f t="shared" si="1"/>
-        <v>Jacob Klop, author of THE COMMUNITY, CROOKED SOULS, SUN GIVER</v>
+        <v>J.G. MacLeod, author of THE FUTURE BRIDE, ABALONE, THE ADVENTURES OF LADY ELLEN MONTAGU</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacob Klop, author of THE COMMUNITY, CROOKED SOULS, SUN GIVER</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="P69" t="str">
+      <c r="E70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="P70" t="str">
         <f t="shared" si="1"/>
         <v>Jaimie N. Schock, author of THE TALISMAN WAR SERIES</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="P70" t="str">
+      <c r="E71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="P71" t="str">
         <f t="shared" si="1"/>
         <v>Jason Kilgore, author of HOGROTH AND THE NECROMANCER</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="P71" t="str">
-        <f t="shared" si="1"/>
-        <v>Jax Meyer, author of A MARINE’S HEART SERIES, RISING FROM ASH (FORGED BY FIRE BOOK 1)</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
       <c r="P72" t="str">
         <f t="shared" si="1"/>
-        <v>Jessaca Willis, author of BLOOD AWAKENS</v>
+        <v>Jax Meyer, author of A MARINE’S HEART SERIES, RISING FROM ASH (FORGED BY FIRE BOOK 1)</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3372,15 +3372,15 @@
         <v>286</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F73" s="13"/>
@@ -3397,7 +3397,7 @@
       <c r="O73" s="13"/>
       <c r="P73" t="str">
         <f t="shared" si="1"/>
-        <v>Johnny Carlson, author of SECRET HISTORIES, THE FRAGILE AND THE STRONG</v>
+        <v>Jessaca Willis, author of BLOOD AWAKENS</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3405,10 +3405,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>65</v>
@@ -3430,42 +3430,40 @@
       <c r="O74" s="13"/>
       <c r="P74" t="str">
         <f t="shared" si="1"/>
-        <v>Johnny Carlson / Jannie Coats, author of BUT I CAN DREAM CAN’T I</v>
+        <v>Johnny Carlson, author of SECRET HISTORIES, THE FRAGILE AND THE STRONG</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
       <c r="P75" t="str">
         <f t="shared" si="1"/>
-        <v>Johnny Miles, author of YULETIDE KNIGHTS SERIES, CAFÉ Y CHOCOLATE, CASA RODRIGO</v>
+        <v>Johnny Carlson / Jannie Coats, author of BUT I CAN DREAM CAN’T I</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3473,19 +3471,21 @@
         <v>262</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="G76" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="H76" s="12" t="s">
         <v>288</v>
       </c>
@@ -3498,112 +3498,121 @@
       <c r="O76" s="12"/>
       <c r="P76" t="str">
         <f t="shared" si="1"/>
+        <v>Johnny Miles, author of YULETIDE KNIGHTS SERIES, CAFÉ Y CHOCOLATE, CASA RODRIGO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" t="str">
+        <f t="shared" si="1"/>
         <v>Jon-David, author of THE MAFIA HAIRDRESSER CHRONICLES</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" t="str">
+      <c r="E78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" t="str">
         <f t="shared" si="1"/>
         <v>Josh Stoddard, author of SMALLTOWN BOY</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P78" t="str">
-        <f t="shared" si="1"/>
-        <v>Julie Kusma, author of STUCK THAT WAY AND OTHER QUANDARIES</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P79" t="str">
         <f t="shared" si="1"/>
-        <v>Julius Eks, author of LE BERCEAU</v>
+        <v>Julie Kusma, author of STUCK THAT WAY AND OTHER QUANDARIES</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L80" s="12" t="s">
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P80" t="str">
         <f t="shared" si="1"/>
-        <v>Kelly Miller, author of DEATH TAKES A HOLIDAY AT PEMBERLEY</v>
+        <v>Julius Eks, author of LE BERCEAU</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3611,89 +3620,89 @@
         <v>286</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="1"/>
+        <v>Kelly Miller, author of DEATH TAKES A HOLIDAY AT PEMBERLEY</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>64</v>
       </c>
-      <c r="E81" t="s">
-        <v>60</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P81" t="str">
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" t="str">
         <f t="shared" si="1"/>
         <v>Kevin Barrick, author of CREATIVITY BREWING: 30 SHORT STORIES HAND-ROASTED TO PERFECTION</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="83" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" t="str">
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" t="str">
         <f t="shared" si="1"/>
         <v>Kevin Craig, author of PRIDE MUST BE A PLACE, THE CAMINO CLUB</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" t="s">
-        <v>60</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" t="str">
-        <f t="shared" si="1"/>
-        <v>Kyle Baxter, author of THE PROBLEM WITH MISTLETOE/FIVE POINTS</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3701,24 +3710,22 @@
         <v>262</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12" t="s">
-        <v>288</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
@@ -3728,129 +3735,132 @@
       <c r="O84" s="12"/>
       <c r="P84" t="str">
         <f t="shared" si="1"/>
+        <v>Kyle Baxter, author of THE PROBLEM WITH MISTLETOE/FIVE POINTS</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="1"/>
         <v>Lali A. Love, author of HEART OF A WARRIOR ANGEL: FROM DARKNESS TO LIGHT</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" t="str">
-        <f t="shared" si="1"/>
-        <v>Lali A. Love, author of THE DE-CODING OF JO: HALL OF IGNORANCE</v>
-      </c>
-    </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>286</v>
+      <c r="A86" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
+      <c r="J86" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
-      <c r="N86" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="N86" s="13"/>
       <c r="O86" s="13"/>
       <c r="P86" t="str">
         <f t="shared" si="1"/>
-        <v>Lali A. Love, author of THE JOY OF I.T.: INFINITE TRANSCENDENCE</v>
+        <v>Lali A. Love, author of THE DE-CODING OF JO: HALL OF IGNORANCE</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="6" t="s">
-        <v>262</v>
+      <c r="A87" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J87" s="13"/>
+      <c r="I87" s="13"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="N87" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="O87" s="13"/>
       <c r="P87" t="str">
         <f t="shared" si="1"/>
+        <v>Lali A. Love, author of THE JOY OF I.T.: INFINITE TRANSCENDENCE</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" t="str">
+        <f t="shared" si="1"/>
         <v>Lannie Stabile, author of STRANGE FURNITURE</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P88" t="str">
-        <f t="shared" si="1"/>
-        <v>Lisa Keeble, author of FROM HIS PERSPECTIVE</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3858,15 +3868,15 @@
         <v>286</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K89" s="12" t="s">
@@ -3874,7 +3884,7 @@
       </c>
       <c r="P89" t="str">
         <f t="shared" si="1"/>
-        <v>Lord Veil, author of PRESENTING: THE AFTERMATH</v>
+        <v>Lisa Keeble, author of FROM HIS PERSPECTIVE</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3882,23 +3892,23 @@
         <v>286</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N90" s="13" t="s">
+      <c r="K90" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P90" t="str">
         <f t="shared" si="1"/>
-        <v>Lori Yerxa, author of PUSHING THROUGH</v>
+        <v>Lord Veil, author of PRESENTING: THE AFTERMATH</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3906,15 +3916,15 @@
         <v>286</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F91" s="12"/>
@@ -3922,51 +3932,51 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="K91" s="12"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="N91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="O91" s="12"/>
       <c r="P91" t="str">
         <f t="shared" si="1"/>
-        <v>LT Ward, author of VOYAGERS: THE THIRD GHOST</v>
+        <v>Lori Yerxa, author of PUSHING THROUGH</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
+      <c r="K92" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
+      <c r="M92" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
       <c r="P92" t="str">
         <f t="shared" si="1"/>
-        <v>Lucy Bexley, author of FLYING FIRST</v>
+        <v>LT Ward, author of VOYAGERS: THE THIRD GHOST</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3974,10 +3984,10 @@
         <v>262</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>69</v>
@@ -3999,7 +4009,7 @@
       <c r="O93" s="12"/>
       <c r="P93" t="str">
         <f t="shared" si="1"/>
-        <v>M.E. Aster, author of THREE HALVES OF A WHOLE</v>
+        <v>Lucy Bexley, author of FLYING FIRST</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4007,21 +4017,21 @@
         <v>262</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G94" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -4032,26 +4042,28 @@
       <c r="O94" s="12"/>
       <c r="P94" t="str">
         <f t="shared" si="1"/>
-        <v>Macey Wilkie, author of HEKSER (WITCHES)</v>
+        <v>M.E. Aster, author of THREE HALVES OF A WHOLE</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F95" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -4059,13 +4071,11 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
-      <c r="N95" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="N95" s="12"/>
       <c r="O95" s="12"/>
       <c r="P95" t="str">
         <f t="shared" si="1"/>
-        <v>Maggie Gilewicz, author of HOW TO MAKE SURE YOUR LIFE DOESN’T SUCK</v>
+        <v>Macey Wilkie, author of HEKSER (WITCHES)</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4073,10 +4083,10 @@
         <v>286</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>68</v>
@@ -4098,73 +4108,73 @@
       <c r="O96" s="12"/>
       <c r="P96" t="str">
         <f t="shared" si="1"/>
+        <v>Maggie Gilewicz, author of HOW TO MAKE SURE YOUR LIFE DOESN’T SUCK</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="O97" s="12"/>
+      <c r="P97" t="str">
+        <f t="shared" si="1"/>
         <v>Magnolia, author of SHE SLAYS DRAGONS</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B97" s="8" t="s">
+    <row r="98" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" t="str">
+      <c r="E98" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" t="str">
         <f t="shared" si="1"/>
         <v>Marian L Thorpe, author of EMPIRE’S LEGACY SERIES - THREE BOOKS); ORAIAPHON, EMPIRE’S RECKONING (EMPIRE’S REPRISE BOOK 1)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" t="str">
-        <f t="shared" si="1"/>
-        <v>Mary Cook, author of THE MISTS OF STONE LAKE</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4172,15 +4182,15 @@
         <v>262</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F99" s="11" t="s">
@@ -4197,84 +4207,84 @@
       <c r="O99" s="12"/>
       <c r="P99" t="str">
         <f t="shared" si="1"/>
+        <v>Mary Cook, author of THE MISTS OF STONE LAKE</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" t="str">
+        <f t="shared" si="1"/>
         <v>Mason Thomas, author of THE WITCHSTONE AMULET, THE SHADOW MARK, LORD MOUSE</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B100" s="8" t="s">
+    <row r="101" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" t="str">
+      <c r="E101" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" t="str">
         <f t="shared" si="1"/>
         <v>Meg-John Barker, author of GRAPHIC GUIDES, REWRITING THE RULES, ENJOY SEX, HOW TO UNDERSTAND YOUR GENDER, LIFE ISN’T BINARY</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" t="str">
-        <f t="shared" si="1"/>
-        <v>Megan The Poet, author of POETRY FOR LOVERS AND HATERS</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>184</v>
@@ -4282,35 +4292,35 @@
       <c r="E102" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
       <c r="P102" t="str">
         <f t="shared" si="1"/>
-        <v>Michael Stoneburner, author of HE WAS A BOY WHO SMILED: PHOENIX RISING/HE WAS A BOY WHO SMILED: PHOENIX FALLING/SHORTS/</v>
+        <v>Megan The Poet, author of POETRY FOR LOVERS AND HATERS</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>320</v>
+      <c r="A103" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>60</v>
@@ -4318,134 +4328,143 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="I103" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
-      <c r="M103" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" t="str">
         <f t="shared" si="1"/>
-        <v>Nathan Rivers, author of DIVIDED LOYALTIES: LONDON GANGLANDS BOOK TWO</v>
+        <v>Michael Stoneburner, author of HE WAS A BOY WHO SMILED: PHOENIX RISING/HE WAS A BOY WHO SMILED: PHOENIX FALLING/SHORTS/</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" s="6" t="s">
+      <c r="A104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
+      <c r="M104" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
       <c r="P104" t="str">
         <f t="shared" si="1"/>
+        <v>Nathan Rivers, author of DIVIDED LOYALTIES: LONDON GANGLANDS BOOK TWO</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" t="str">
+        <f t="shared" si="1"/>
         <v>Nero Seal, author of EGOIST SERIES</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="P105" t="str">
-        <f t="shared" si="1"/>
-        <v>Nick Askew, author of ENSOULMENT</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="P106" t="str">
         <f t="shared" si="1"/>
-        <v>Nora Edington, author of BEGINNING: LOVE AND BETRAYALS ROMANCE SERIES</v>
+        <v>Nick Askew, author of ENSOULMENT</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" t="s">
-        <v>66</v>
-      </c>
-      <c r="E107" t="s">
-        <v>60</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>288</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
       <c r="P107" t="str">
         <f t="shared" si="1"/>
-        <v>P.J. Stanley, author of TELL ME EVERY LIE</v>
+        <v>Nora Edington, author of BEGINNING: LOVE AND BETRAYALS ROMANCE SERIES</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4453,22 +4472,22 @@
         <v>262</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E108" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -4478,7 +4497,7 @@
       <c r="O108" s="12"/>
       <c r="P108" t="str">
         <f t="shared" si="1"/>
-        <v>Patrick Scattergood, author of MOTHER, DEAREST</v>
+        <v>P.J. Stanley, author of TELL ME EVERY LIE</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4486,23 +4505,23 @@
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
@@ -4511,75 +4530,75 @@
       <c r="O109" s="12"/>
       <c r="P109" t="str">
         <f t="shared" si="1"/>
+        <v>Patrick Scattergood, author of MOTHER, DEAREST</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" t="str">
+        <f t="shared" si="1"/>
         <v>Paul Lisicky, author of LATER: MY LIFE AT THE EDGE OF THE WORLD</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B110" s="6" t="s">
+    <row r="111" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" t="str">
+      <c r="E111" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" t="str">
         <f t="shared" si="1"/>
         <v>Penelope Peters, author of THE OMEGA NANNY</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" t="str">
-        <f t="shared" si="1"/>
-        <v>Philip Woodrow Lewis, author of KUNG FU FIGHTING VAMPIRE MERMAIDS-GLOBE ZERO</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4587,15 +4606,15 @@
         <v>286</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F112" s="12"/>
@@ -4612,7 +4631,7 @@
       <c r="O112" s="12"/>
       <c r="P112" t="str">
         <f t="shared" si="1"/>
-        <v>R Young, author of DEAD HEADS</v>
+        <v>Philip Woodrow Lewis, author of KUNG FU FIGHTING VAMPIRE MERMAIDS-GLOBE ZERO</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4620,15 +4639,15 @@
         <v>286</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F113" s="12"/>
@@ -4645,7 +4664,7 @@
       <c r="O113" s="12"/>
       <c r="P113" t="str">
         <f t="shared" si="1"/>
-        <v>Rachel Glickler, author of THE CULL</v>
+        <v>R Young, author of DEAD HEADS</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4653,15 +4672,15 @@
         <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E114" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F114" s="12"/>
@@ -4678,7 +4697,7 @@
       <c r="O114" s="12"/>
       <c r="P114" t="str">
         <f t="shared" si="1"/>
-        <v>Richard Bist, author of DARK JOURNEYS</v>
+        <v>Rachel Glickler, author of THE CULL</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,56 +4705,52 @@
         <v>286</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
+      <c r="K115" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="O115" s="12"/>
       <c r="P115" t="str">
         <f t="shared" si="1"/>
-        <v>Rodol Phito, author of RIVAL REBELS</v>
+        <v>Richard Bist, author of DARK JOURNEYS</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E116" t="s">
-        <v>60</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -4743,58 +4758,63 @@
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
+      <c r="O116" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="P116" t="str">
         <f t="shared" si="1"/>
-        <v>S S Long, author of DRAGONS OF FIRE AND ICE</v>
+        <v>Rodol Phito, author of RIVAL REBELS</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>66</v>
+        <v>330</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O117" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P117" t="str">
         <f t="shared" si="1"/>
-        <v>S. P. O’Farrell, author of SIMONE LAFRAY AND THE CHOCOLATIERS’ BALL</v>
+        <v>Rory Michaelson, author of LESSER KNOWN MONSTERS</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L118" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P118" t="str">
         <f t="shared" si="1"/>
-        <v>Sabrina Oyinloye, author of THE HIDDEN SCAR: TOKOPHOBIA</v>
+        <v>S S Long, author of DRAGONS OF FIRE AND ICE</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,212 +4822,203 @@
         <v>286</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K119" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O119" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P119" t="str">
         <f t="shared" si="1"/>
-        <v>Samantha Kroese, author of FADING LIGHTS TRILOGY (FORBIDDEN, UNSPOKEN, TABOO), REGRET, LADYKILLER, RESTLESS DREAMS OF DARKNESS</v>
+        <v>S. P. O’Farrell, author of SIMONE LAFRAY AND THE CHOCOLATIERS’ BALL</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="L120" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P120" t="str">
         <f t="shared" si="1"/>
-        <v>San G. Crowe, author of THE CRAVING, AND SHORT STORIES</v>
+        <v>Sabrina Oyinloye, author of THE HIDDEN SCAR: TOKOPHOBIA</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P121" t="str">
         <f t="shared" si="1"/>
-        <v>Sandy Gilchrist, author of FINDING ME</v>
+        <v>Samantha Kroese, author of FADING LIGHTS TRILOGY (FORBIDDEN, UNSPOKEN, TABOO), REGRET, LADYKILLER, RESTLESS DREAMS OF DARKNESS</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E122" t="s">
-        <v>60</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="E122" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P122" t="str">
         <f t="shared" si="1"/>
-        <v>Sein Ares, author of RED MOON (ARCANA OF THE CRIMSON ERA BOOK ONE)</v>
+        <v>San G. Crowe, author of THE CRAVING, AND SHORT STORIES</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
+      <c r="A123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="P123" t="str">
         <f t="shared" si="1"/>
-        <v>Shakeil Kanish &amp; Larissa Mandeville, author of THE SIGIL: A NOVEL</v>
+        <v>Sandy Gilchrist, author of FINDING ME</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
       </c>
       <c r="E124" t="s">
         <v>60</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H124" s="12" t="s">
+      <c r="K124" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P124" t="str">
         <f t="shared" si="1"/>
-        <v>Sheena C. Howard, author of NINA’S WHISPER</v>
+        <v>Sein Ares, author of RED MOON (ARCANA OF THE CRIMSON ERA BOOK ONE)</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" t="s">
-        <v>60</v>
-      </c>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
+      <c r="A125" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
       <c r="P125" t="str">
         <f t="shared" si="1"/>
-        <v>Shenae Chase, author of THE LOVE MENTALIST</v>
+        <v>Shakeil Kanish &amp; Larissa Mandeville, author of THE SIGIL: A NOVEL</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N126" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H126" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P126" t="str">
         <f t="shared" si="1"/>
-        <v>Solomon, author of THINGS HAPPEN DON’T LET IT GET TO YOU</v>
+        <v>Sheena C. Howard, author of NINA’S WHISPER</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5015,16 +5026,16 @@
         <v>286</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D127" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -5032,15 +5043,15 @@
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
+      <c r="L127" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
-      <c r="O127" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="O127" s="12"/>
       <c r="P127" t="str">
         <f t="shared" si="1"/>
-        <v>Stuart McDonald, author of TURTLE TROUBLE, THE WITCHES’ TEA PARTY</v>
+        <v>Shenae Chase, author of THE LOVE MENTALIST</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5048,15 +5059,15 @@
         <v>286</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D128" t="s">
-        <v>66</v>
-      </c>
-      <c r="E128" t="s">
+        <v>309</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F128" s="12"/>
@@ -5066,80 +5077,80 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
-      <c r="M128" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="N128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="O128" s="12"/>
       <c r="P128" t="str">
         <f t="shared" si="1"/>
-        <v>Susan M Lane, author of SECRETS</v>
+        <v>Solomon, author of THINGS HAPPEN DON’T LET IT GET TO YOU</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>60</v>
+        <v>321</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" t="s">
+        <v>127</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
-      <c r="I129" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="I129" s="12"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
+      <c r="O129" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="P129" t="str">
         <f t="shared" si="1"/>
-        <v>Suzanne DeWitt Hall, author of WHERE TRUE LOVE IS</v>
+        <v>Stuart McDonald, author of TURTLE TROUBLE, THE WITCHES’ TEA PARTY</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D130" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130" t="s">
         <v>66</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" t="s">
         <v>60</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
-      <c r="H130" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
+      <c r="M130" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="N130" s="12"/>
       <c r="O130" s="12"/>
       <c r="P130" t="str">
         <f t="shared" si="1"/>
-        <v>Tammy Bird, author of THE BOOK OF PROMISES AND SANDMAN</v>
+        <v>Susan M Lane, author of SECRETS</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5147,23 +5158,23 @@
         <v>262</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D131" t="s">
-        <v>64</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
+      <c r="I131" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
@@ -5172,7 +5183,7 @@
       <c r="O131" s="12"/>
       <c r="P131" t="str">
         <f t="shared" ref="P131:P151" si="2">TRIM(B131)&amp;", author of "&amp;TRIM(UPPER(C131))</f>
-        <v>Taylor Ramage, author of FORGIVE US OUR TRESPASSES; LEST I KNOW YOUR WEAKNESS</v>
+        <v>Suzanne DeWitt Hall, author of WHERE TRUE LOVE IS</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5180,22 +5191,22 @@
         <v>262</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="H132" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
@@ -5205,63 +5216,62 @@
       <c r="O132" s="12"/>
       <c r="P132" t="str">
         <f t="shared" si="2"/>
-        <v>Terry Geo, author of REFRACTION</v>
+        <v>Tammy Bird, author of THE BOOK OF PROMISES AND SANDMAN</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="O133" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
       <c r="P133" t="str">
         <f t="shared" si="2"/>
-        <v>The Organic Poet, author of THEORGANICPOET.COM</v>
+        <v>Taylor Ramage, author of FORGIVE US OUR TRESPASSES; LEST I KNOW YOUR WEAKNESS</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G134" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
@@ -5272,144 +5282,138 @@
       <c r="O134" s="12"/>
       <c r="P134" t="str">
         <f t="shared" si="2"/>
-        <v>Thomas Grant Bruso, author of JAY BIRD, THE UNBROKEN CIRCLE, THE TWO OF US, PAST SINS, THE LIGHT BETWEEN US, HEAT WAVE</v>
+        <v>Terry Geo, author of REFRACTION</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D135" s="8" t="s">
+      <c r="B135" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O135" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="E135" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O135" s="13"/>
       <c r="P135" t="str">
         <f t="shared" si="2"/>
-        <v>Titan Frey, author of REFLECTION: THE PAUL MANN STORY, A PLAYER’S PATH: A STORY ABOUT LIFE AND FOOTBALL</v>
+        <v>The Organic Poet, author of THEORGANICPOET.COM</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E136" t="s">
-        <v>60</v>
+        <v>281</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P136" t="str">
         <f t="shared" si="2"/>
-        <v>TJ Dallas, author of THE BARTENDER’S PRIDE (#1) AND PRIDE AND THE STRANGER (#2)/THE PRIDE TRILOGY</v>
+        <v>Thomas Grant Bruso, author of JAY BIRD, THE UNBROKEN CIRCLE, THE TWO OF US, PAST SINS, THE LIGHT BETWEEN US, HEAT WAVE</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>234</v>
+        <v>286</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="P137" t="str">
         <f t="shared" si="2"/>
-        <v>Travis Mays, author of FREE NIGHTMARES</v>
+        <v>Titan Frey, author of REFLECTION: THE PAUL MANN STORY, A PLAYER’S PATH: A STORY ABOUT LIFE AND FOOTBALL</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="P138" t="str">
         <f t="shared" si="2"/>
-        <v>Tyler Hayes, author of THE IMAGINARY CORPSE</v>
+        <v>TJ Dallas, author of THE BARTENDER’S PRIDE (#1) AND PRIDE AND THE STRANGER (#2)/THE PRIDE TRILOGY</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>214</v>
+      <c r="A139" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="F139" s="13"/>
       <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
+      <c r="H139" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
       <c r="K139" s="13"/>
@@ -5419,133 +5423,148 @@
       <c r="O139" s="13"/>
       <c r="P139" t="str">
         <f t="shared" si="2"/>
-        <v>Vaz Anzai, author of STRANGE TALES FROM THE CITY OF DUST</v>
+        <v>Travis Mays, author of FREE NIGHTMARES</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="E140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
       <c r="P140" t="str">
         <f t="shared" si="2"/>
-        <v>Vicky Calzo, author of THE VAMPIRE SOCIETY: CHRISTOPHER AND GASPAR</v>
+        <v>Tyler Hayes, author of THE IMAGINARY CORPSE</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="A141" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E141" t="s">
-        <v>62</v>
-      </c>
-      <c r="O141" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="E141" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
       <c r="P141" t="str">
         <f t="shared" si="2"/>
-        <v>Victoria J. Price, author of THE THIRD SUN: DAUGHTER OF THE PHOENIX BOOK ONE</v>
+        <v>Vaz Anzai, author of STRANGE TALES FROM THE CITY OF DUST</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E142" t="s">
-        <v>60</v>
-      </c>
-      <c r="L142" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M142" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J142" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P142" t="str">
         <f t="shared" si="2"/>
-        <v>Victoria Marswell, author of THE COUNTERFEITER’S DAUGHTER</v>
+        <v>Vicky Calzo, author of THE VAMPIRE SOCIETY: CHRISTOPHER AND GASPAR</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>327</v>
+        <v>133</v>
       </c>
       <c r="D143" t="s">
         <v>64</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F143" s="11" t="s">
+      <c r="E143" t="s">
+        <v>62</v>
+      </c>
+      <c r="O143" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P143" t="str">
         <f t="shared" si="2"/>
-        <v>Victoria Williams, author of PROXIMA G: A SCI-FI SHORT STORY</v>
+        <v>Victoria J. Price, author of THE THIRD SUN: DAUGHTER OF THE PHOENIX BOOK ONE</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="I144" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" t="s">
+        <v>60</v>
+      </c>
+      <c r="L144" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M144" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P144" t="str">
         <f t="shared" si="2"/>
-        <v>W D Foster-Graham, author of CHRISTOPHER FAMILY NOVEL SERIES</v>
+        <v>Victoria Marswell, author of THE COUNTERFEITER’S DAUGHTER</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5553,158 +5572,158 @@
         <v>262</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>70</v>
+        <v>327</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G145" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H145" s="12" t="s">
+      <c r="F145" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P145" t="str">
         <f t="shared" si="2"/>
-        <v>Wendy Hewlett, author of SOLSTICE COVEN SERIES - HIGH PRIESTESS, GUARDIANS OF THE SACRED MOON</v>
+        <v>Victoria Williams, author of PROXIMA G: A SCI-FI SHORT STORY</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D146" t="s">
-        <v>66</v>
-      </c>
-      <c r="E146" t="s">
-        <v>60</v>
-      </c>
-      <c r="M146" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I146" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P146" t="str">
         <f t="shared" si="2"/>
-        <v>Wesley Stein, author of THE ISLANDERS</v>
+        <v>W D Foster-Graham, author of CHRISTOPHER FAMILY NOVEL SERIES</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" t="s">
-        <v>64</v>
-      </c>
-      <c r="E147" t="s">
-        <v>62</v>
-      </c>
-      <c r="O147" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H147" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P147" t="str">
         <f t="shared" si="2"/>
-        <v>Winnifred Tataw, author of CHILD OF TEMPUS, DESCENDANTS OF TIME AND DEATH /(SERIES:THE GODS’ SCION)</v>
+        <v>Wendy Hewlett, author of SOLSTICE COVEN SERIES - HIGH PRIESTESS, GUARDIANS OF THE SACRED MOON</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="13"/>
+      <c r="B148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" t="s">
+        <v>60</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="P148" t="str">
         <f t="shared" si="2"/>
-        <v>Zoe Allison, author of IMPERVIOUS</v>
+        <v>Wesley Stein, author of THE ISLANDERS</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G149" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" t="s">
+        <v>62</v>
+      </c>
+      <c r="O149" s="12" t="s">
         <v>288</v>
       </c>
       <c r="P149" t="str">
         <f t="shared" si="2"/>
-        <v>Zoe Burgess, author of SONG OF THE NIGHT</v>
+        <v>Winnifred Tataw, author of CHILD OF TEMPUS, DESCENDANTS OF TIME AND DEATH /(SERIES:THE GODS’ SCION)</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D150" t="s">
-        <v>64</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
       <c r="P150" t="str">
         <f t="shared" si="2"/>
-        <v>Rory Michaelson, author of LESSER KNOWN MONSTERS</v>
+        <v>Zoe Allison, author of IMPERVIOUS</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5712,23 +5731,26 @@
         <v>262</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>332</v>
+        <v>144</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D151" t="s">
-        <v>64</v>
+        <v>145</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F151" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G151" s="11" t="s">
         <v>288</v>
       </c>
       <c r="P151" t="str">
         <f t="shared" si="2"/>
-        <v>J. D. Toombs, author of JUDD/THE FRAGMENTED CHRONICLES</v>
+        <v>Zoe Burgess, author of SONG OF THE NIGHT</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="121" customHeight="1" x14ac:dyDescent="0.15">
@@ -5747,15 +5769,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O149">
-    <sortState ref="A2:O149">
-      <sortCondition ref="B1:B149"/>
+    <sortState ref="A2:O151">
+      <sortCondition ref="B1:B151"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F153:O153"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C133" r:id="rId1"/>
+    <hyperlink ref="C135" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
